--- a/notebooks/dataframe.xlsx
+++ b/notebooks/dataframe.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>city</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Free Bikes</t>
+          <t>free Bikes</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>longitude</t>
         </is>
       </c>
     </row>
